--- a/Psps.Web/Reports/R01.xlsx
+++ b/Psps.Web/Reports/R01.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\SWD_20211215\SRAA Source Code Scanning\PSPS_SourceCode\PSPS_SourceCode\Psps.Web\Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A39F1B-5C6D-4B51-9477-E82D1253773F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="405" windowWidth="18855" windowHeight="11985"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSP Summary" sheetId="1" r:id="rId1"/>
     <sheet name="PSP Raw Data" sheetId="2" r:id="rId2"/>
     <sheet name="Complaint &amp; Enquiry Breakdown" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>Applications</t>
     <phoneticPr fontId="0" type="noConversion"/>
@@ -29,10 +48,6 @@
     <t>Applications Not Issued With Permit</t>
   </si>
   <si>
-    <t>PSP Events</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Number of </t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -41,10 +56,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>PSP Events</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>Total Net Proceeds ($M)</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -92,12 +103,6 @@
     <t>Report ID: R01</t>
   </si>
   <si>
-    <t>Report Name: PSP Statistical Summary (excluding FD)</t>
-  </si>
-  <si>
-    <t>PSP (excluding Flag Day)</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -214,52 +219,61 @@
     <t>{0}</t>
   </si>
   <si>
-    <t>Statistical Summary of Public Subscription Permit (PSP) (Exlcuding Flag Day)
+    <t>Written Enquiries/ Complaints from other Depts / Authorities</t>
+  </si>
+  <si>
+    <t>Report Year:{0}</t>
+  </si>
+  <si>
+    <t>Event Cancelled after approval</t>
+  </si>
+  <si>
+    <t>Result not available</t>
+  </si>
+  <si>
+    <t>Total Net Proceeds ($M)</t>
+  </si>
+  <si>
+    <t>Total Gross Proceeds ($M)</t>
+  </si>
+  <si>
+    <t>PSP Events Held</t>
+  </si>
+  <si>
+    <t>Summary Statistics of PSP of GCFA
 ({0} to {1})</t>
   </si>
   <si>
-    <t>Written Enquiries/ Complaints from other Depts / Authorities</t>
-  </si>
-  <si>
-    <t>Report Year:{0}</t>
-  </si>
-  <si>
-    <t>Event Cancelled after approval</t>
-  </si>
-  <si>
-    <t>Result not available</t>
-  </si>
-  <si>
-    <t>Total Net Proceeds ($M)</t>
-  </si>
-  <si>
-    <t>Total Gross Proceeds ($M)</t>
+    <t>Report Name: PSP of GCFA Statistical Summary</t>
+  </si>
+  <si>
+    <t>PSP of GCFA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="180" formatCode="\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ "/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="168" formatCode="\(0\)"/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -344,7 +358,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -365,13 +379,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -862,12 +876,12 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,13 +896,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,40 +914,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -942,48 +953,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,38 +1012,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="8" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1044,10 +1055,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1065,13 +1076,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,39 +1091,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="178" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,11 +1133,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1134,9 +1145,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="千分位" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1157,9 +1168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1197,7 +1208,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1269,7 +1280,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1442,102 +1453,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="11" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="11" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
-    <col min="4" max="11" width="10.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="18.6640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="12.6640625" style="1" customWidth="1"/>
+    <col min="4" max="11" width="10.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="38.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:11" ht="37.799999999999997">
+      <c r="A1" s="19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="21" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="21"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="22"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="23" t="s">
-        <v>62</v>
+      <c r="A8" s="22" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="38.25" customHeight="1" thickBot="1">
-      <c r="B10" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+      <c r="B10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
     </row>
     <row r="11" spans="1:11" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A11" s="68"/>
-      <c r="B11" s="83" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="84"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="82" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="83"/>
     </row>
     <row r="12" spans="1:11" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="57"/>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="50.1" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="3">
         <f>C12-C13</f>
         <v>0</v>
@@ -1545,132 +1556,132 @@
     </row>
     <row r="15" spans="1:11" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="59"/>
+        <v>62</v>
+      </c>
+      <c r="B15" s="58"/>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:11" ht="35.1" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="79"/>
+        <v>61</v>
+      </c>
+      <c r="B16" s="59"/>
+      <c r="C16" s="78"/>
     </row>
     <row r="17" spans="1:3" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A17" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="78"/>
-    </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1"/>
+      <c r="A17" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="66"/>
+      <c r="C17" s="77"/>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" thickBot="1"/>
     <row r="22" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="84"/>
+      <c r="B22" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="83"/>
     </row>
     <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1">
       <c r="A23" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C23" s="11"/>
     </row>
     <row r="24" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="62"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="61"/>
       <c r="C24" s="12"/>
     </row>
     <row r="25" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="12"/>
     </row>
     <row r="26" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="61"/>
-      <c r="C26" s="76"/>
+        <v>62</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="75"/>
     </row>
     <row r="27" spans="1:3" ht="35.1" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="77"/>
+        <v>61</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="76"/>
     </row>
     <row r="28" spans="1:3" ht="35.1" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="77"/>
+        <v>5</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="76"/>
     </row>
     <row r="29" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="15"/>
-    </row>
-    <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="17" t="s">
+      <c r="B31" s="54"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="15"/>
-    </row>
-    <row r="31" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="17" t="s">
+      <c r="B32" s="54"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="17" t="s">
+      <c r="B33" s="54"/>
+      <c r="C33" s="15"/>
+    </row>
+    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="55"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="17" t="s">
+      <c r="B34" s="54"/>
+      <c r="C34" s="15"/>
+    </row>
+    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="55"/>
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="55"/>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="1:3" ht="35.1" customHeight="1" thickBot="1">
-      <c r="A36" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="57"/>
-      <c r="C36" s="19"/>
+      <c r="A36" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="56"/>
+      <c r="C36" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1684,7 +1695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1692,538 +1703,538 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="11.7109375" style="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" style="1"/>
-    <col min="14" max="14" width="9.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" style="1" customWidth="1"/>
-    <col min="16" max="17" width="25.7109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="9.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.109375" style="1"/>
+    <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.109375" style="1"/>
+    <col min="14" max="14" width="9.6640625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" style="1" customWidth="1"/>
+    <col min="16" max="17" width="25.6640625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="82.5" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="85"/>
+      <c r="H1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="I1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="J1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="K1" s="86" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="86" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="86"/>
-      <c r="H1" s="28" t="s">
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="P1" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="87" t="s">
+      <c r="Q1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P1" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q1" s="30" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="73"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44">
+        <f>O2+B3-C3-D3-H3-I3-J3-K3</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="73"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44">
+        <f t="shared" ref="O4:O13" si="0">O3+B4-C4-D4-H4-I4-J4-K4</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="73"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="73"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="74"/>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="33" t="s">
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="73"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45">
-        <f>O2+B3-C3-D3-H3-I3-J3-K3</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="74"/>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="33" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="73"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45">
-        <f t="shared" ref="O4:O13" si="0">O3+B4-C4-D4-H4-I4-J4-K4</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="74"/>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="33" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="73"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45">
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="74"/>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="33" t="s">
+      <c r="P9" s="70"/>
+      <c r="Q9" s="73"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45">
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="44"/>
+      <c r="O10" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P6" s="71"/>
-      <c r="Q6" s="74"/>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="33" t="s">
+      <c r="P10" s="70"/>
+      <c r="Q10" s="73"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="45"/>
-      <c r="K7" s="45"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="45"/>
-      <c r="O7" s="45">
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="44"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="44"/>
+      <c r="O11" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P7" s="71"/>
-      <c r="Q7" s="74"/>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="33" t="s">
+      <c r="P11" s="70"/>
+      <c r="Q11" s="73"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P8" s="71"/>
-      <c r="Q8" s="74"/>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="33" t="s">
+      <c r="P12" s="70"/>
+      <c r="Q12" s="73"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="45"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P9" s="71"/>
-      <c r="Q9" s="74"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="33" t="s">
+      <c r="P13" s="70"/>
+      <c r="Q13" s="73"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="45"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="74"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="33" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="44"/>
+      <c r="O14" s="44">
+        <f>O13+B14-C14-D14-H14-I14-J14-K14</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="73"/>
+    </row>
+    <row r="15" spans="1:17" ht="16.2" thickBot="1">
+      <c r="A15" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P11" s="71"/>
-      <c r="Q11" s="74"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="71"/>
-      <c r="Q12" s="74"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="74"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45">
-        <f>O13+B14-C14-D14-H14-I14-J14-K14</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="74"/>
-    </row>
-    <row r="15" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A15" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="53"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="75"/>
-    </row>
-    <row r="16" spans="1:17" ht="16.5" thickBot="1">
-      <c r="A16" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="54">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="74"/>
+    </row>
+    <row r="16" spans="1:17" ht="16.2" thickBot="1">
+      <c r="A16" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="53">
         <f>SUM(B2:B15)</f>
         <v>0</v>
       </c>
-      <c r="C16" s="54">
+      <c r="C16" s="53">
         <f t="shared" ref="C16:Q16" si="1">SUM(C2:C15)</f>
         <v>0</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="54">
+      <c r="G16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="54">
+      <c r="H16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L16" s="54">
+      <c r="L16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M16" s="54">
+      <c r="M16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="54">
+      <c r="N16" s="53">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O16" s="54"/>
-      <c r="P16" s="73">
+      <c r="O16" s="53"/>
+      <c r="P16" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q16" s="73">
+      <c r="Q16" s="72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="17.25" thickTop="1">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="81"/>
-      <c r="J17" s="81"/>
-      <c r="K17" s="81"/>
-      <c r="L17" s="81"/>
-      <c r="M17" s="81"/>
-      <c r="N17" s="81"/>
-      <c r="O17" s="81"/>
-      <c r="P17" s="81"/>
-      <c r="Q17" s="81"/>
-    </row>
-    <row r="18" spans="1:17" ht="16.5">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="82"/>
-      <c r="Q18" s="82"/>
-    </row>
-    <row r="19" spans="1:17" ht="16.5">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
+    <row r="17" spans="1:17" ht="16.2" thickTop="1">
+      <c r="A17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="80"/>
+      <c r="Q17" s="80"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="80"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2237,343 +2248,343 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="10" width="13.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
+    <col min="2" max="10" width="13.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+    </row>
+    <row r="3" spans="1:10" ht="98.25" customHeight="1">
+      <c r="A3" s="41"/>
+      <c r="B3" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-    </row>
-    <row r="3" spans="1:10" ht="98.25" customHeight="1">
-      <c r="A3" s="42"/>
-      <c r="B3" s="69" t="s">
+      <c r="G3" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="69" t="s">
+      <c r="H3" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="J3" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="69" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3" s="69" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
+      <c r="A4" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="33"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42">
+      <c r="A5" s="32"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41">
         <f t="shared" ref="I5:I17" si="0">SUM(B5:H5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="33"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42">
+      <c r="A6" s="32"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="42"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="33"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42">
+      <c r="A7" s="32"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="42"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="33"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42">
+      <c r="A8" s="32"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="42"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="33"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42">
+      <c r="A9" s="32"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="33"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42">
+      <c r="A10" s="32"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="33"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42">
+      <c r="A11" s="32"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="42"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="33"/>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42">
+      <c r="A12" s="32"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="42"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="33"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42">
+      <c r="A13" s="32"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="42"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="33"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42">
+      <c r="A14" s="32"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="42"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="33"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42">
+      <c r="A15" s="32"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="42"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="33"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42">
+      <c r="A16" s="32"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A17" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42">
+      <c r="J16" s="41"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A17" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A18" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="43">
+      <c r="J17" s="41"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.2" thickBot="1">
+      <c r="A18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="42">
         <f>SUM(B5:B16)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="42">
         <f t="shared" ref="C18:J18" si="1">SUM(C5:C16)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="43">
+      <c r="D18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="43">
+      <c r="E18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F18" s="43">
+      <c r="F18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G18" s="43">
+      <c r="G18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="43">
+      <c r="H18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J18" s="43">
+      <c r="J18" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="17.25" thickTop="1" thickBot="1">
-      <c r="A19" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1"/>
+    <row r="19" spans="1:10" ht="16.8" thickTop="1" thickBot="1">
+      <c r="A19" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.2" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
